--- a/data/trans_camb/P15_3-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P15_3-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,26</t>
+          <t>16,6</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18,59</t>
+          <t>22,64</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,11</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,95</t>
+          <t>4,69</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,35</t>
+          <t>20,57</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>9,85</t>
+          <t>10,19</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>18,95</t>
+          <t>21,45</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 3,21</t>
+          <t>-7,68; 3,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,45; 19,89</t>
+          <t>8,04; 24,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,46; 25,39</t>
+          <t>12,71; 31,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 2,38</t>
+          <t>-7,11; 5,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,37; 12,35</t>
+          <t>-1,5; 11,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,54; 26,19</t>
+          <t>12,6; 28,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 1,36</t>
+          <t>-5,43; 3,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,58; 13,6</t>
+          <t>4,96; 15,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,24; 23,61</t>
+          <t>14,68; 27,56</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-16,41%</t>
+          <t>-16,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>136,1%</t>
+          <t>220,33%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>190,75%</t>
+          <t>300,54%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-18,21%</t>
+          <t>-7,84%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>60,07%</t>
+          <t>38,68%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>167,24%</t>
+          <t>169,7%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-17,5%</t>
+          <t>-10,98%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>91,71%</t>
+          <t>101,62%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>176,55%</t>
+          <t>213,91%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-49,89; 45,41</t>
+          <t>-67,78; 88,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>56,12; 258,92</t>
+          <t>63,32; 499,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>101,52; 345,24</t>
+          <t>98,4; 667,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-48,11; 25,72</t>
+          <t>-48,75; 62,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,18; 136,8</t>
+          <t>-12,43; 120,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>89,58; 293,32</t>
+          <t>70,97; 309,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-42,38; 15,75</t>
+          <t>-44,28; 37,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>43,96; 151,49</t>
+          <t>39,55; 200,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>110,88; 264,42</t>
+          <t>118,24; 345,59</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>-2,16</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,11</t>
+          <t>10,35</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>22,55</t>
+          <t>23,84</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,8</t>
+          <t>-3,29</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,86</t>
+          <t>11,47</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>21,61</t>
+          <t>20,59</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,41</t>
+          <t>10,89</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>21,97</t>
+          <t>22,13</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 2,26</t>
+          <t>-7,75; 3,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,79; 16,64</t>
+          <t>3,98; 19,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,69; 29,41</t>
+          <t>14,99; 33,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 3,13</t>
+          <t>-9,56; 2,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,93; 17,36</t>
+          <t>3,69; 19,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,46; 29,1</t>
+          <t>12,98; 29,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 1,24</t>
+          <t>-7,05; 1,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,15; 14,63</t>
+          <t>5,58; 16,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,35; 27,92</t>
+          <t>16,06; 28,81</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-25,48%</t>
+          <t>-30,95%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>172,44%</t>
+          <t>148,23%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>384,67%</t>
+          <t>341,36%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-20,05%</t>
+          <t>-36,56%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>120,72%</t>
+          <t>127,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>240,32%</t>
+          <t>228,64%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-22,35%</t>
+          <t>-34,22%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>137,96%</t>
+          <t>135,06%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>291,33%</t>
+          <t>274,46%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-69,48; 57,8</t>
+          <t>-79,86; 89,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>53,78; 410,29</t>
+          <t>26,95; 435,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>193,27; 715,81</t>
+          <t>133,42; 766,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-58,31; 54,75</t>
+          <t>-74,46; 66,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>38,77; 264,15</t>
+          <t>24,87; 347,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>112,66; 452,53</t>
+          <t>96,59; 542,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-52,83; 20,09</t>
+          <t>-67,88; 21,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>64,99; 244,89</t>
+          <t>48,26; 280,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>176,7; 461,51</t>
+          <t>146,87; 491,65</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-6,49</t>
+          <t>-9,26</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,86</t>
+          <t>14,52</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>23,24</t>
+          <t>27,13</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-5,14</t>
+          <t>-7,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>11,38</t>
+          <t>6,93</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>20,34</t>
+          <t>25,4</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-5,85</t>
+          <t>-8,14</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>11,1</t>
+          <t>10,65</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>21,88</t>
+          <t>26,28</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-17,65; 2,21</t>
+          <t>-24,18; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 25,29</t>
+          <t>-6,23; 38,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,63; 38,55</t>
+          <t>0,27; 52,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-16,1; 2,71</t>
+          <t>-20,57; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 25,16</t>
+          <t>-5,97; 20,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,74; 33,53</t>
+          <t>6,82; 43,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-12,65; -0,03</t>
+          <t>-17,61; -2,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,99; 21,23</t>
+          <t>-1,36; 24,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,43; 33,57</t>
+          <t>10,19; 40,94</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-64,45%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>107,82%</t>
+          <t>156,86%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>230,81%</t>
+          <t>293,04%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-53,48%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>118,38%</t>
+          <t>99,02%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>211,6%</t>
+          <t>362,93%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-59,32%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>112,69%</t>
+          <t>130,8%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>222,08%</t>
+          <t>322,8%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 81,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-32,73; 481,4</t>
+          <t>-47,23; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>19,77; 834,27</t>
+          <t>1,07; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 131,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-28,59; 540,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,37; 757,46</t>
+          <t>9,17; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-89,14; 17,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,77; 360,98</t>
+          <t>-21,93; 652,87</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>78,53; 595,85</t>
+          <t>60,67; 1021,79</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>11,59</t>
+          <t>13,76</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>20,71</t>
+          <t>23,61</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,94</t>
+          <t>7,63</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>20,34</t>
+          <t>21,03</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,25</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>10,19</t>
+          <t>10,52</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>20,48</t>
+          <t>22,22</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 0,75</t>
+          <t>-6,26; 0,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,53; 15,88</t>
+          <t>8,52; 19,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,18; 25,61</t>
+          <t>16,93; 29,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 1,17</t>
+          <t>-6,74; 1,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,87; 12,7</t>
+          <t>2,03; 12,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,68; 25,04</t>
+          <t>15,64; 26,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,67; -0,34</t>
+          <t>-5,42; 0,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,35; 13,28</t>
+          <t>7,1; 14,52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17,02; 23,8</t>
+          <t>18,12; 26,6</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-26,37%</t>
+          <t>-33,77%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>140,26%</t>
+          <t>183,31%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>250,59%</t>
+          <t>314,56%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-22,11%</t>
+          <t>-24,48%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>86,42%</t>
+          <t>73,53%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>196,55%</t>
+          <t>202,64%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-23,96%</t>
+          <t>-27,98%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>108,67%</t>
+          <t>116,32%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>218,41%</t>
+          <t>245,79%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-53,22; 11,47</t>
+          <t>-64,01; 15,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>75,1; 234,77</t>
+          <t>85,74; 346,45</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>160,24; 386,99</t>
+          <t>173,14; 538,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-44,39; 13,59</t>
+          <t>-52,71; 20,47</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>43,21; 148,19</t>
+          <t>16,22; 153,09</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>134,28; 301,27</t>
+          <t>115,78; 316,04</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-43,9; -4,04</t>
+          <t>-50,75; 5,01</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>70,6; 162,66</t>
+          <t>64,98; 189,28</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>159,66; 295,8</t>
+          <t>164,57; 346,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
